--- a/Api/Listado de Operaciones.xlsx
+++ b/Api/Listado de Operaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Listado de Operaciones</t>
   </si>
@@ -41,166 +41,91 @@
     <t>tiempo</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:12:00</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:32:00</t>
-  </si>
-  <si>
-    <t>00:20:00</t>
-  </si>
-  <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:14:00</t>
-  </si>
-  <si>
-    <t>2017-12-12 21:09:00</t>
-  </si>
-  <si>
-    <t>21:55:00</t>
-  </si>
-  <si>
-    <t>asdsadasdasdas</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:17:00</t>
-  </si>
-  <si>
-    <t>asdsadasdasdasasd</t>
-  </si>
-  <si>
-    <t>asdsadasdsasdasasd</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:41:00</t>
-  </si>
-  <si>
-    <t>00:24:00</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:46:00</t>
-  </si>
-  <si>
-    <t>00:29:00</t>
-  </si>
-  <si>
-    <t>aaaasd</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:18:00</t>
-  </si>
-  <si>
-    <t>2017-12-12 21:20:00</t>
-  </si>
-  <si>
-    <t>22:02:00</t>
-  </si>
-  <si>
-    <t>aaaasds</t>
-  </si>
-  <si>
-    <t>aaaasdsasd</t>
-  </si>
-  <si>
-    <t>aaaasdsassdd</t>
-  </si>
-  <si>
-    <t>wwww</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:43:00</t>
-  </si>
-  <si>
-    <t>00:25:00</t>
-  </si>
-  <si>
-    <t>wwwwqwe</t>
-  </si>
-  <si>
-    <t>2017-12-11 23:45:00</t>
-  </si>
-  <si>
-    <t>00:27:00</t>
-  </si>
-  <si>
-    <t>wwwwqweqwe</t>
-  </si>
-  <si>
-    <t>123qweq</t>
-  </si>
-  <si>
-    <t>2017-12-12 21:19:00</t>
-  </si>
-  <si>
-    <t>2017-12-12 22:01:00</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>2017-12-13 19:01:00</t>
-  </si>
-  <si>
-    <t>vio</t>
-  </si>
-  <si>
-    <t>2017-12-13 19:03:00</t>
-  </si>
-  <si>
-    <t>assss</t>
-  </si>
-  <si>
-    <t>2017-12-13 19:05:00</t>
-  </si>
-  <si>
-    <t>asdasdss</t>
-  </si>
-  <si>
-    <t>2017-12-13 19:07:00</t>
-  </si>
-  <si>
-    <t>asdasdssa</t>
-  </si>
-  <si>
-    <t>qqwe</t>
-  </si>
-  <si>
-    <t>2017-12-13 20:19:00</t>
-  </si>
-  <si>
-    <t>qqweqwe</t>
-  </si>
-  <si>
-    <t>qqweqweqwe</t>
-  </si>
-  <si>
-    <t>qqweqweqwqwee</t>
-  </si>
-  <si>
-    <t>adasd</t>
-  </si>
-  <si>
-    <t>2017-12-13 20:46:00</t>
-  </si>
-  <si>
-    <t>2017-12-13 22:55:00</t>
-  </si>
-  <si>
-    <t>02:09:00</t>
-  </si>
-  <si>
-    <t>sadasdsad</t>
-  </si>
-  <si>
-    <t>2017-12-13 23:55:00</t>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>2017-12-18 22:25:00</t>
+  </si>
+  <si>
+    <t>2017-12-19 22:57:00</t>
+  </si>
+  <si>
+    <t>24:32:00</t>
+  </si>
+  <si>
+    <t>mmm555</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:47:00</t>
+  </si>
+  <si>
+    <t>22:22:00</t>
+  </si>
+  <si>
+    <t>kkk432</t>
+  </si>
+  <si>
+    <t>2017-12-18 22:26:00</t>
+  </si>
+  <si>
+    <t>lpo999</t>
+  </si>
+  <si>
+    <t>opr888</t>
+  </si>
+  <si>
+    <t>2017-12-19 22:33:00</t>
+  </si>
+  <si>
+    <t>24:07:00</t>
+  </si>
+  <si>
+    <t>rew334</t>
+  </si>
+  <si>
+    <t>2017-12-18 22:27:00</t>
+  </si>
+  <si>
+    <t>rml333</t>
+  </si>
+  <si>
+    <t>mkl333</t>
+  </si>
+  <si>
+    <t>2017-12-18 22:28:00</t>
+  </si>
+  <si>
+    <t>kop222</t>
+  </si>
+  <si>
+    <t>lkk555</t>
+  </si>
+  <si>
+    <t>2017-12-18 22:29:00</t>
+  </si>
+  <si>
+    <t>dd343dd</t>
+  </si>
+  <si>
+    <t>2017-12-19 22:37:00</t>
+  </si>
+  <si>
+    <t>ss123we</t>
+  </si>
+  <si>
+    <t>bde343</t>
+  </si>
+  <si>
+    <t>mm443ee</t>
+  </si>
+  <si>
+    <t>2017-12-19 22:58:00</t>
+  </si>
+  <si>
+    <t>klo333</t>
+  </si>
+  <si>
+    <t>2017-12-19 23:25:00</t>
   </si>
 </sst>
 </file>
@@ -560,16 +485,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -607,13 +532,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -622,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -630,39 +555,39 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="2">
         <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -670,16 +595,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -687,85 +612,73 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>180</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -773,16 +686,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -790,16 +703,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -807,62 +720,50 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -870,16 +771,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -887,219 +788,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>105</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>300</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2">
-        <v>301</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2">
-        <v>102</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2">
-        <v>102</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2">
-        <v>100</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2">
-        <v>21</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2">
-        <v>101</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
